--- a/src/data/directory.xlsx
+++ b/src/data/directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/elex24_config/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/redboard/20241106-elex24_config/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B7D1F-994C-8A4C-99A2-AEB1920F3ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44285CC6-5B3F-654C-B5B9-05C9B6C812E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1440" windowWidth="28040" windowHeight="17440" xr2:uid="{D97DCAB7-86D2-0C4C-ADFB-432BE95E72F5}"/>
+    <workbookView xWindow="2580" yWindow="1400" windowWidth="28040" windowHeight="17440" xr2:uid="{D97DCAB7-86D2-0C4C-ADFB-432BE95E72F5}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="469">
   <si>
     <t>office</t>
   </si>
@@ -1424,6 +1424,27 @@
   </si>
   <si>
     <t>mnleg-results-geo.json</t>
+  </si>
+  <si>
+    <t>Senate District 45</t>
+  </si>
+  <si>
+    <t>senate2022.json</t>
+  </si>
+  <si>
+    <t>mnsen</t>
+  </si>
+  <si>
+    <t>mnsen-results-geo.json</t>
+  </si>
+  <si>
+    <t>Constitutional Amendment Ballot Question</t>
+  </si>
+  <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>ballot-results-geo.json</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013429EE-F939-1446-99FD-047719CE88DC}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:H145"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5566,6 +5587,58 @@
       </c>
       <c r="H145" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>464</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45</v>
+      </c>
+      <c r="D146">
+        <v>46.607469000000002</v>
+      </c>
+      <c r="E146">
+        <v>-94.351646000000002</v>
+      </c>
+      <c r="F146" t="s">
+        <v>465</v>
+      </c>
+      <c r="G146" t="s">
+        <v>463</v>
+      </c>
+      <c r="H146" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>467</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>46.607469000000002</v>
+      </c>
+      <c r="E147">
+        <v>-94.351646000000002</v>
+      </c>
+      <c r="F147" t="s">
+        <v>468</v>
+      </c>
+      <c r="G147" t="s">
+        <v>306</v>
+      </c>
+      <c r="H147" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
